--- a/Bootstrapping-Table.xlsx
+++ b/Bootstrapping-Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ziqisu/Documents/Fall 2018/MT5762 Introductory Data Analysis/Project2/MT5762-Project2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48DA8CC0-C662-9149-A01E-4401338E3E94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0861B9-DE22-614D-A52B-E5FCB57AD20A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4740" yWindow="460" windowWidth="25440" windowHeight="14180" xr2:uid="{A6FF3ECB-1920-7045-A025-62CA7D140F57}"/>
   </bookViews>
